--- a/static/Uploads/模板.xlsx
+++ b/static/Uploads/模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -48,9 +48,6 @@
     <t>条目2</t>
   </si>
   <si>
-    <t>CRITICAL</t>
-  </si>
-  <si>
     <t>条目3</t>
   </si>
   <si>
@@ -78,22 +75,34 @@
     <t>内容2</t>
   </si>
   <si>
-    <t>ordinary</t>
-  </si>
-  <si>
     <t>条目111</t>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -121,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -129,12 +138,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,16 +435,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="3" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -448,12 +460,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -461,80 +473,80 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -542,10 +554,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -553,21 +565,22 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -579,8 +592,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -591,8 +605,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/Uploads/模板.xlsx
+++ b/static/Uploads/模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -48,6 +48,9 @@
     <t>条目2</t>
   </si>
   <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
     <t>条目3</t>
   </si>
   <si>
@@ -75,34 +78,22 @@
     <t>内容2</t>
   </si>
   <si>
+    <t>ordinary</t>
+  </si>
+  <si>
     <t>条目111</t>
-  </si>
-  <si>
-    <t>Critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -138,15 +129,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -188,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,7 +211,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,16 +423,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="3" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -460,12 +448,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -473,80 +461,80 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -554,10 +542,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -565,22 +553,21 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -592,9 +579,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -605,9 +591,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>